--- a/week-2/Menu/menubook.xlsx
+++ b/week-2/Menu/menubook.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
     <x:t>dishName</x:t>
   </x:si>
@@ -41,6 +41,12 @@
   </x:si>
   <x:si>
     <x:t>roast beef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bacon wrapped sausage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wine reduction and truffle schnitzel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -475,6 +481,34 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>13.75</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>24.84</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
